--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926308.8913845459</v>
+        <v>992015.9439509268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298022</v>
+        <v>405687.0519298021</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7425940.881937064</v>
+        <v>7425940.881937065</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>103.7130553628818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>184.5759377496635</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>113.9035819898745</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,37 +1311,37 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>78.58080987070727</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.527445132208413</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>82.39192523630797</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>216.1887566733421</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1772833831575647</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>36.78400355084147</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>162.1340187700879</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>82.35859283669745</v>
       </c>
       <c r="T15" t="n">
-        <v>179.4039227790901</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
         <v>225.9058271976456</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>48.62857833535715</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.2062988327028</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>208.4062181274146</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>162.1340187700881</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
-        <v>104.5776904124689</v>
+        <v>68.76003350751635</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>41.43586480746475</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>178.4774459369245</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>36.04637828302549</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2219,13 +2219,13 @@
         <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
-        <v>153.5143376089041</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>228.2062988327028</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>194.0496263582884</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>202.1845787823939</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>350.4192841891</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>56.88196987815802</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>46.18576247291544</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>375.7365975466365</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>300.716050699532</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.80654717117291</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>263.6999860767158</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>321.4642257063111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>139.3733281349269</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>174.8813118982896</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>161.9576660742749</v>
       </c>
       <c r="U35" t="n">
-        <v>147.3763769967815</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>101.717706569126</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>26.65046674024676</v>
+        <v>86.27958936702863</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>156.1271626621471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>107.5435391652372</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.123481276657944</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>33.42595480754878</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>332.4215880585719</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>169.7794350937827</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>184.272045986318</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
         <v>749.627473042513</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>193.7341723913397</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X3" t="n">
-        <v>193.7341723913397</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.7341723913397</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E5" t="n">
         <v>262.7299197543128</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,19 +4676,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,22 +4910,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>375.9758515364179</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>375.9758515364179</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X9" t="n">
-        <v>375.9758515364179</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y9" t="n">
         <v>168.215552771464</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.190249651015</v>
+        <v>540.0398757145022</v>
       </c>
       <c r="C11" t="n">
-        <v>1197.227732710603</v>
+        <v>540.0398757145022</v>
       </c>
       <c r="D11" t="n">
-        <v>838.9620341038528</v>
+        <v>540.0398757145022</v>
       </c>
       <c r="E11" t="n">
-        <v>453.1737815056086</v>
+        <v>540.0398757145022</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18787671600103</v>
+        <v>540.0398757145022</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600103</v>
+        <v>121.5624321409579</v>
       </c>
       <c r="H11" t="n">
         <v>42.18787671600103</v>
@@ -5065,28 +5065,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2106.840860919033</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1918.958904921129</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1918.958904921129</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1918.958904921129</v>
+        <v>1634.707853294964</v>
       </c>
       <c r="V11" t="n">
-        <v>1918.958904921129</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="W11" t="n">
-        <v>1566.190249651015</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.190249651015</v>
+        <v>930.1792076903139</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.190249651015</v>
+        <v>540.0398757145022</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555.4799414129038</v>
+        <v>605.6370858810601</v>
       </c>
       <c r="C12" t="n">
-        <v>381.0269121317768</v>
+        <v>431.1840565999331</v>
       </c>
       <c r="D12" t="n">
-        <v>381.0269121317768</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E12" t="n">
-        <v>221.7894571263213</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F12" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I12" t="n">
         <v>42.18787671600103</v>
@@ -5138,7 +5138,7 @@
         <v>1965.506473496562</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
@@ -5153,19 +5153,19 @@
         <v>1678.853686831559</v>
       </c>
       <c r="U12" t="n">
-        <v>1460.481205343335</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="V12" t="n">
-        <v>1225.329097111592</v>
+        <v>1443.701578599816</v>
       </c>
       <c r="W12" t="n">
-        <v>971.0917403833905</v>
+        <v>1189.464221871615</v>
       </c>
       <c r="X12" t="n">
-        <v>763.2402401778577</v>
+        <v>981.6127216660821</v>
       </c>
       <c r="Y12" t="n">
-        <v>555.4799414129038</v>
+        <v>773.8524229011282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F13" t="n">
-        <v>42.36695084040261</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
         <v>42.18787671600103</v>
@@ -5220,31 +5220,31 @@
         <v>527.3837778842139</v>
       </c>
       <c r="Q13" t="n">
-        <v>478.6740683752736</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R13" t="n">
-        <v>478.6740683752736</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S13" t="n">
-        <v>478.6740683752736</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T13" t="n">
-        <v>478.6740683752736</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="U13" t="n">
-        <v>478.6740683752736</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V13" t="n">
-        <v>478.6740683752736</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.256898338313</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
         <v>683.321988080341</v>
@@ -5302,25 +5302,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>1834.218536131508</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.335429826068</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1576.179870683804</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V14" t="n">
-        <v>1245.116983340233</v>
+        <v>1778.330948456481</v>
       </c>
       <c r="W14" t="n">
-        <v>1245.116983340233</v>
+        <v>1425.562293186367</v>
       </c>
       <c r="X14" t="n">
-        <v>871.6512250791529</v>
+        <v>1261.790557054965</v>
       </c>
       <c r="Y14" t="n">
         <v>871.6512250791529</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>671.3473286369498</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C15" t="n">
-        <v>496.8942993558228</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9598896945715</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E15" t="n">
-        <v>188.7224346891161</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F15" t="n">
         <v>42.18787671600103</v>
@@ -5357,25 +5357,25 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K15" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994083</v>
+        <v>371.269127424762</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.973362584464</v>
+        <v>827.1688172098175</v>
       </c>
       <c r="N15" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O15" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
@@ -5384,25 +5384,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1946.116217237204</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T15" t="n">
-        <v>1764.900133621962</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U15" t="n">
-        <v>1536.712429381916</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V15" t="n">
-        <v>1301.560321150173</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W15" t="n">
-        <v>1047.322964421972</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X15" t="n">
-        <v>1047.322964421972</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y15" t="n">
-        <v>839.5626656570178</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C16" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E16" t="n">
-        <v>189.0778242139114</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F16" t="n">
         <v>42.18787671600103</v>
@@ -5469,19 +5469,19 @@
         <v>527.3837778842139</v>
       </c>
       <c r="U16" t="n">
-        <v>238.1976003102317</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V16" t="n">
-        <v>238.1976003102317</v>
+        <v>272.6992896783271</v>
       </c>
       <c r="W16" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X16" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y16" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1414.61754575985</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="C17" t="n">
-        <v>1414.61754575985</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D17" t="n">
-        <v>1204.106214318017</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.106214318017</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F17" t="n">
-        <v>793.1203095284093</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H17" t="n">
         <v>42.18787671600103</v>
@@ -5521,7 +5521,7 @@
         <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5539,28 +5539,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.217385823971</v>
+        <v>1945.622099668649</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.217385823971</v>
+        <v>1614.559212325079</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.217385823971</v>
+        <v>1261.790557054965</v>
       </c>
       <c r="X17" t="n">
-        <v>1801.217385823971</v>
+        <v>1261.790557054965</v>
       </c>
       <c r="Y17" t="n">
-        <v>1801.217385823971</v>
+        <v>871.6512250791529</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>635.0792316150212</v>
+        <v>471.2724209033396</v>
       </c>
       <c r="C18" t="n">
-        <v>635.0792316150212</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="D18" t="n">
-        <v>486.1448219537698</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="E18" t="n">
-        <v>326.9073669483143</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F18" t="n">
-        <v>180.3728089751993</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H18" t="n">
         <v>42.18787671600103</v>
@@ -5597,19 +5597,19 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8271385329676</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L18" t="n">
-        <v>508.959781349409</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344645</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523722</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501092</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5621,25 +5621,25 @@
         <v>2042.117567525232</v>
       </c>
       <c r="S18" t="n">
-        <v>1936.483536805566</v>
+        <v>1972.66298822471</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.483536805566</v>
+        <v>1772.676726093885</v>
       </c>
       <c r="U18" t="n">
-        <v>1708.29583256552</v>
+        <v>1544.489021853838</v>
       </c>
       <c r="V18" t="n">
-        <v>1473.143724333778</v>
+        <v>1309.336913622096</v>
       </c>
       <c r="W18" t="n">
-        <v>1218.906367605576</v>
+        <v>1055.099556893894</v>
       </c>
       <c r="X18" t="n">
-        <v>1011.054867400043</v>
+        <v>847.2480566883614</v>
       </c>
       <c r="Y18" t="n">
-        <v>803.2945686350893</v>
+        <v>639.4877579234076</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="U19" t="n">
         <v>331.6050467529616</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1700.628773496707</v>
+        <v>913.505633975582</v>
       </c>
       <c r="C20" t="n">
-        <v>1331.666256556296</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D20" t="n">
-        <v>973.4005579495451</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E20" t="n">
-        <v>793.1203095284093</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F20" t="n">
-        <v>793.1203095284093</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H20" t="n">
         <v>42.18787671600103</v>
@@ -5779,25 +5779,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.628773496707</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.628773496707</v>
+        <v>1634.707853294964</v>
       </c>
       <c r="V20" t="n">
-        <v>1700.628773496707</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="W20" t="n">
-        <v>1700.628773496707</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="X20" t="n">
-        <v>1700.628773496707</v>
+        <v>1303.644965951394</v>
       </c>
       <c r="Y20" t="n">
-        <v>1700.628773496707</v>
+        <v>913.505633975582</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>524.8127706638348</v>
+        <v>779.4442855700464</v>
       </c>
       <c r="C21" t="n">
-        <v>350.3597413827078</v>
+        <v>604.9912562889194</v>
       </c>
       <c r="D21" t="n">
-        <v>201.4253317214565</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E21" t="n">
-        <v>42.18787671600103</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H21" t="n">
         <v>42.18787671600103</v>
@@ -5858,25 +5858,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>2072.983352685884</v>
       </c>
       <c r="T21" t="n">
-        <v>1746.129955106379</v>
+        <v>1872.997090555059</v>
       </c>
       <c r="U21" t="n">
-        <v>1517.942250866333</v>
+        <v>1644.809386315012</v>
       </c>
       <c r="V21" t="n">
-        <v>1362.877263382591</v>
+        <v>1409.65727808327</v>
       </c>
       <c r="W21" t="n">
-        <v>1108.63990665439</v>
+        <v>1155.419921355068</v>
       </c>
       <c r="X21" t="n">
-        <v>900.7884064488567</v>
+        <v>1155.419921355068</v>
       </c>
       <c r="Y21" t="n">
-        <v>693.0281076839028</v>
+        <v>947.6596225901144</v>
       </c>
     </row>
     <row r="22">
@@ -5943,10 +5943,10 @@
         <v>527.3837778842139</v>
       </c>
       <c r="U22" t="n">
-        <v>238.1976003102317</v>
+        <v>296.8723649218879</v>
       </c>
       <c r="V22" t="n">
-        <v>238.1976003102317</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W22" t="n">
         <v>42.18787671600103</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1061.921889775365</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C23" t="n">
-        <v>857.6950425204218</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.723949158869</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X23" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1448.521729839487</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="24">
@@ -6080,7 +6080,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537796</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
         <v>53.94298182036444</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W25" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1731.411330760289</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C26" t="n">
-        <v>1362.448813819877</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V26" t="n">
-        <v>2474.319318006215</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W26" t="n">
-        <v>2121.550662736101</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X26" t="n">
-        <v>2121.550662736101</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y26" t="n">
-        <v>1731.411330760289</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036444</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>743.4848209837926</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C29" t="n">
-        <v>439.7312344186087</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036444</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>429.427143371405</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>429.427143371405</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>102.2324234074078</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1893.689751284806</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>1520.223993023726</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y29" t="n">
-        <v>1130.084661047914</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6554,31 +6554,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>830.1724885289281</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>830.1724885289281</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>471.9067899221776</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
         <v>471.9067899221776</v>
@@ -6691,22 +6691,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>1881.118241157406</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W32" t="n">
-        <v>1528.349585887292</v>
+        <v>1958.389016328664</v>
       </c>
       <c r="X32" t="n">
-        <v>1154.883827626212</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y32" t="n">
-        <v>830.1724885289281</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245969</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8405610245969</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7239216122612</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245969</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245969</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245969</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1595.875667274026</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>1595.875667274026</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274026</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862885</v>
+        <v>2533.555488922995</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.077886593409</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="V35" t="n">
-        <v>1986.014999249838</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="W35" t="n">
-        <v>1986.014999249838</v>
+        <v>1927.025048290972</v>
       </c>
       <c r="X35" t="n">
-        <v>1986.014999249838</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.875667274026</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1494.154169929768</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C38" t="n">
-        <v>1125.191652989356</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>766.9259543826058</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V38" t="n">
-        <v>2220.388583460962</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="W38" t="n">
-        <v>1867.619928190848</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X38" t="n">
-        <v>1494.154169929768</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y38" t="n">
-        <v>1494.154169929768</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7362,13 +7362,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
         <v>53.94298182036445</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.679656148628</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2588.519253477578</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2369.884586449641</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2369.884586449641</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2369.884586449641</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W41" t="n">
-        <v>2369.884586449641</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X41" t="n">
-        <v>1996.418828188561</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1606.27949621275</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7508,7 +7508,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.6913543878343</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C43" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W43" t="n">
-        <v>439.6809052858516</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X43" t="n">
-        <v>211.6913543878343</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6913543878343</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1369.426717132083</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="C44" t="n">
-        <v>1369.426717132083</v>
+        <v>747.9880623044603</v>
       </c>
       <c r="D44" t="n">
-        <v>1011.161018525332</v>
+        <v>389.7223636977098</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7687,13 +7687,13 @@
         <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014691</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.921096014691</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y44" t="n">
-        <v>1369.426717132083</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7739,37 +7739,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="U46" t="n">
-        <v>500.820796875036</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="V46" t="n">
-        <v>246.1363086691491</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>541.9956044222746</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>541.9956044222746</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>176.1159433919877</v>
+        <v>37.0344747812332</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509468</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>89.41205144475511</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>226.4285348520591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.9958191250947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>75.77844388033751</v>
       </c>
       <c r="K18" t="n">
-        <v>172.4310032247004</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520591</v>
       </c>
       <c r="Q18" t="n">
         <v>70.99581912509468</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451751</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415591</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>147.9819277980378</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>284.3390338194077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>48.22464939976174</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>91.86940321360295</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>250.549629475768</v>
       </c>
       <c r="I11" t="n">
         <v>171.5352284535379</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>83.89296510172488</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>65.05314032833078</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9.717070524303466</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3606140740784</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
         <v>158.1988625129318</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23469,7 +23469,7 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>32.18875021220813</v>
       </c>
       <c r="U13" t="n">
         <v>286.2943157982424</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>214.4808438868089</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>207.5970819083812</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -23624,10 +23624,10 @@
         <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.28624954052117</v>
       </c>
       <c r="T15" t="n">
-        <v>18.5824767304274</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>99.98689468285521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.537897457236</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>58.3166995038882</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>146.2768234932684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
         <v>171.5352284535379</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>89.1308286675623</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>70.78957724245151</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>57.0671519647497</v>
+        <v>92.88480886970227</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>32.18875021220813</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>323.8370269635428</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>203.4529241353373</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24019,16 +24019,16 @@
         <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>70.78957724245151</v>
@@ -24098,7 +24098,7 @@
         <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>125.5984640941931</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>79.28624954052114</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>58.08801696553959</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>92.47337197830262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>163.0883129886137</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>4.263757431582974</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>91.73350314005434</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,7 +24502,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>281.5664959972195</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>10.50134110941707</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>64.5568410714755</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>104.1247690736883</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>257.8345249902573</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>85.54098264069722</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.7737129497425</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>7.06063451164232</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>111.6416864383014</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>54.49065428338287</v>
       </c>
       <c r="U35" t="n">
-        <v>103.8477905115078</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>65.52911452950183</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>301.1017917298881</v>
+        <v>241.4726691031063</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>96.01048066168093</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>66.87217364373436</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>324.6287771934769</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>245.2493659069478</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>253.0970435290422</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>49.50878201368988</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>216.4585035622709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40.76305947176627</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432464</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645630.2827550254</v>
+        <v>645630.2827550253</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645630.2827550252</v>
+        <v>645630.2827550254</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645630.2827550252</v>
+        <v>645630.2827550254</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452994</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749455.2536452994</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>749455.2536452994</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749455.2536452994</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862712</v>
       </c>
       <c r="F2" t="n">
         <v>247828.6760862711</v>
@@ -26334,28 +26334,28 @@
         <v>247828.6760862711</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="M2" t="n">
-        <v>289152.6100157573</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
       <c r="P2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.701511692</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>71355.62051871087</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390.306596636774</v>
+        <v>10605.9029613997</v>
       </c>
       <c r="C6" t="n">
-        <v>80379.12493491094</v>
+        <v>91375.33449294737</v>
       </c>
       <c r="D6" t="n">
-        <v>80379.12493491094</v>
+        <v>91375.33449294737</v>
       </c>
       <c r="E6" t="n">
-        <v>-111656.1348828236</v>
+        <v>-104334.9854847594</v>
       </c>
       <c r="F6" t="n">
-        <v>175695.5751306021</v>
+        <v>183016.7245286661</v>
       </c>
       <c r="G6" t="n">
-        <v>175695.575130602</v>
+        <v>183016.7245286662</v>
       </c>
       <c r="H6" t="n">
-        <v>175695.575130602</v>
+        <v>183016.7245286662</v>
       </c>
       <c r="I6" t="n">
-        <v>72477.17958987161</v>
+        <v>77938.75196110889</v>
       </c>
       <c r="J6" t="n">
-        <v>143705.9385024576</v>
+        <v>149167.5108736948</v>
       </c>
       <c r="K6" t="n">
-        <v>206765.8811015639</v>
+        <v>212227.4534728011</v>
       </c>
       <c r="L6" t="n">
-        <v>206765.8811015637</v>
+        <v>212227.4534728013</v>
       </c>
       <c r="M6" t="n">
-        <v>135410.2605828528</v>
+        <v>140871.8329540903</v>
       </c>
       <c r="N6" t="n">
-        <v>206765.8811015637</v>
+        <v>212227.4534728011</v>
       </c>
       <c r="O6" t="n">
-        <v>206765.8811015639</v>
+        <v>212227.453472801</v>
       </c>
       <c r="P6" t="n">
-        <v>206765.8811015637</v>
+        <v>212227.4534728011</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="G3" t="n">
         <v>251.2545088598902</v>
@@ -26816,19 +26816,19 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571964</v>
+        <v>126.4891553571965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,16 +31992,16 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
         <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
         <v>159.396365454903</v>
@@ -32025,13 +32025,13 @@
         <v>63.44870770721639</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I15" t="n">
         <v>18.60705560896357</v>
@@ -32080,7 +32080,7 @@
         <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142346</v>
@@ -32098,19 +32098,19 @@
         <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>0.4530819012227527</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507749</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O16" t="n">
         <v>64.04106727464874</v>
@@ -32180,10 +32180,10 @@
         <v>37.93943083784341</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T16" t="n">
         <v>1.935895396133579</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>145.3407700035245</v>
+        <v>6.259301392769931</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
         <v>341.2911650353662</v>
@@ -35667,7 +35667,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>68.20063827911549</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35743,10 +35743,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>195.6533614635958</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345149</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
         <v>88.62619518868841</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191582</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L18" t="n">
         <v>349.6289321378196</v>
@@ -35980,7 +35980,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,10 +37873,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
